--- a/Archivos/numeros.xlsx
+++ b/Archivos/numeros.xlsx
@@ -268,102 +268,102 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>3</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>17</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>26</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>9</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>25</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>27</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>20</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>24</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>16</v>
+        <v>7808</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>15</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>4</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>28</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>6</v>
+        <v>7939</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>21</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>12</v>
+        <v>7672</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0</v>
+        <v>8595</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>13</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>11</v>
+        <v>3876</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/numeros.xlsx
+++ b/Archivos/numeros.xlsx
@@ -268,102 +268,502 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>5227</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>3215</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3362</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>3030</v>
+        <v>9825</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1809</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2724</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>4201</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>6484</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>422</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>7808</v>
+        <v>825</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>9648</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>839</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>392</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>5366</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>7939</v>
+        <v>8749</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>277</v>
+        <v>9367</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>7672</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>8595</v>
+        <v>7926</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>8740</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>3876</v>
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>9528</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>9803</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>9825</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>9367</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>9528</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>9803</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>9825</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>9367</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>9528</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>9803</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>9825</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>6042</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>9367</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>7926</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>2045</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/numeros.xlsx
+++ b/Archivos/numeros.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RTX 2070\Desktop\random_generator\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931FF65E-B1FA-4094-96F3-016E300DCB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC05710-B136-4A36-A22D-93F5614C876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="510" windowWidth="16035" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="1275" windowWidth="12270" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,17 +42,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -57,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -65,31 +72,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,208 +297,129 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="33" x14ac:dyDescent="0.2"/>
-    <row r="34" x14ac:dyDescent="0.2"/>
-    <row r="35" x14ac:dyDescent="0.2"/>
-    <row r="36" x14ac:dyDescent="0.2"/>
-    <row r="37" x14ac:dyDescent="0.2"/>
-    <row r="38" x14ac:dyDescent="0.2"/>
-    <row r="39" x14ac:dyDescent="0.2"/>
-    <row r="40" x14ac:dyDescent="0.2"/>
-    <row r="41" x14ac:dyDescent="0.2"/>
-    <row r="42" x14ac:dyDescent="0.2"/>
-    <row r="43" x14ac:dyDescent="0.2"/>
-    <row r="44" x14ac:dyDescent="0.2"/>
-    <row r="45" x14ac:dyDescent="0.2"/>
-    <row r="46" x14ac:dyDescent="0.2"/>
-    <row r="47" x14ac:dyDescent="0.2"/>
-    <row r="48" x14ac:dyDescent="0.2"/>
-    <row r="49" x14ac:dyDescent="0.2"/>
-    <row r="50" x14ac:dyDescent="0.2"/>
-    <row r="51" x14ac:dyDescent="0.2"/>
-    <row r="52" x14ac:dyDescent="0.2"/>
-    <row r="53" x14ac:dyDescent="0.2"/>
-    <row r="54" x14ac:dyDescent="0.2"/>
-    <row r="55" x14ac:dyDescent="0.2"/>
-    <row r="56" x14ac:dyDescent="0.2"/>
-    <row r="57" x14ac:dyDescent="0.2"/>
-    <row r="58" x14ac:dyDescent="0.2"/>
-    <row r="59" x14ac:dyDescent="0.2"/>
-    <row r="60" x14ac:dyDescent="0.2"/>
-    <row r="61" x14ac:dyDescent="0.2"/>
-    <row r="62" x14ac:dyDescent="0.2"/>
-    <row r="63" x14ac:dyDescent="0.2"/>
-    <row r="64" x14ac:dyDescent="0.2"/>
-    <row r="65" x14ac:dyDescent="0.2"/>
-    <row r="66" x14ac:dyDescent="0.2"/>
-    <row r="67" x14ac:dyDescent="0.2"/>
-    <row r="68" x14ac:dyDescent="0.2"/>
-    <row r="69" x14ac:dyDescent="0.2"/>
-    <row r="70" x14ac:dyDescent="0.2"/>
-    <row r="71" x14ac:dyDescent="0.2"/>
-    <row r="72" x14ac:dyDescent="0.2"/>
-    <row r="73" x14ac:dyDescent="0.2"/>
-    <row r="74" x14ac:dyDescent="0.2"/>
-    <row r="75" x14ac:dyDescent="0.2"/>
-    <row r="76" x14ac:dyDescent="0.2"/>
-    <row r="77" x14ac:dyDescent="0.2"/>
-    <row r="78" x14ac:dyDescent="0.2"/>
-    <row r="79" x14ac:dyDescent="0.2"/>
-    <row r="80" x14ac:dyDescent="0.2"/>
-    <row r="81" x14ac:dyDescent="0.2"/>
-    <row r="82" x14ac:dyDescent="0.2"/>
-    <row r="83" x14ac:dyDescent="0.2"/>
-    <row r="84" x14ac:dyDescent="0.2"/>
-    <row r="85" x14ac:dyDescent="0.2"/>
-    <row r="86" x14ac:dyDescent="0.2"/>
-    <row r="87" x14ac:dyDescent="0.2"/>
-    <row r="88" x14ac:dyDescent="0.2"/>
-    <row r="89" x14ac:dyDescent="0.2"/>
-    <row r="90" x14ac:dyDescent="0.2"/>
-    <row r="91" x14ac:dyDescent="0.2"/>
-    <row r="92" x14ac:dyDescent="0.2"/>
-    <row r="93" x14ac:dyDescent="0.2"/>
-    <row r="94" x14ac:dyDescent="0.2"/>
-    <row r="95" x14ac:dyDescent="0.2"/>
-    <row r="96" x14ac:dyDescent="0.2"/>
-    <row r="97" x14ac:dyDescent="0.2"/>
-    <row r="98" x14ac:dyDescent="0.2"/>
-    <row r="99" x14ac:dyDescent="0.2"/>
-    <row r="100" x14ac:dyDescent="0.2"/>
-    <row r="101" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Archivos/numeros.xlsx
+++ b/Archivos/numeros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RTX 2070\Desktop\random_generator\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC05710-B136-4A36-A22D-93F5614C876C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80B64C3-08C5-40B0-AFE6-59650BD0BDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1275" windowWidth="12270" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="2055" windowWidth="12270" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -297,127 +296,197 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="13" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>3</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Archivos/numeros.xlsx
+++ b/Archivos/numeros.xlsx
@@ -268,502 +268,502 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>9179406</v>
+        <v>59586562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1494512</v>
+        <v>55837097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3566118</v>
+        <v>78140138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>7197589</v>
+        <v>88116665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5287412</v>
+        <v>54665072</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6725657</v>
+        <v>27009676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>4462081</v>
+        <v>22597624</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>166850</v>
+        <v>52610445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>8389225</v>
+        <v>85892309</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>9096100</v>
+        <v>48874535</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>9035210</v>
+        <v>72017146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>5019744</v>
+        <v>46931798</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>7829825</v>
+        <v>59366351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>6159530</v>
+        <v>36363105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>9809820</v>
+        <v>27540524</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2568432</v>
+        <v>80462194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>6842938</v>
+        <v>16466329</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>5800471</v>
+        <v>39990736</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>5463821</v>
+        <v>25896582</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>3339920</v>
+        <v>32959282</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>5065606</v>
+        <v>31426995</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>364147</v>
+        <v>56014730</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>6030376</v>
+        <v>64997697</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>5434701</v>
+        <v>70061530</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>5974959</v>
+        <v>61798594</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>135051</v>
+        <v>6622037</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2387726</v>
+        <v>51374029</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1235451</v>
+        <v>29085569</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>6339173</v>
+        <v>70324053</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>5114323</v>
+        <v>47243034</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>6299748</v>
+        <v>90426152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>6824863</v>
+        <v>88896552</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>8754968</v>
+        <v>59695748</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>9464681</v>
+        <v>58232927</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>186431</v>
+        <v>7378698</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>7565177</v>
+        <v>45184175</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1903041</v>
+        <v>60967043</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1565047</v>
+        <v>98033216</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>9372112</v>
+        <v>51143930</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>6483340</v>
+        <v>70157584</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>3697555</v>
+        <v>8659271</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1912978</v>
+        <v>82974251</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>9484828</v>
+        <v>72632901</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1962189</v>
+        <v>53830767</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>185671</v>
+        <v>75147580</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>4737202</v>
+        <v>15877985</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1082788</v>
+        <v>10407660</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>2429852</v>
+        <v>19386675</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>4180741</v>
+        <v>43167555</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>8595309</v>
+        <v>43780467</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>9336805</v>
+        <v>72929073</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>5927608</v>
+        <v>64968863</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>6536601</v>
+        <v>95315951</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>7152633</v>
+        <v>13051503</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>158832</v>
+        <v>41730559</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>2276042</v>
+        <v>43955445</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>367185</v>
+        <v>8114514</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>8248242</v>
+        <v>45337456</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>3496090</v>
+        <v>48491655</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>2645288</v>
+        <v>44060463</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>7548602</v>
+        <v>32439977</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1392154</v>
+        <v>35210776</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>8092759</v>
+        <v>79874652</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>2748232</v>
+        <v>96003212</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>2779125</v>
+        <v>61671431</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>3535765</v>
+        <v>36540158</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1634135</v>
+        <v>18314666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>397198</v>
+        <v>26990691</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>7662512</v>
+        <v>97400657</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>4090150</v>
+        <v>88798403</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>9327022</v>
+        <v>15637535</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>3339388</v>
+        <v>32500876</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1512214</v>
+        <v>30694076</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>6791181</v>
+        <v>26301493</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>139374</v>
+        <v>68534029</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>4251118</v>
+        <v>91313097</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>2004249</v>
+        <v>8168373</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>7014054</v>
+        <v>22317467</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>6953514</v>
+        <v>69333296</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>1356948</v>
+        <v>10593422</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>1307874</v>
+        <v>20589670</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>534399</v>
+        <v>34510708</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>5822912</v>
+        <v>98896666</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>6304159</v>
+        <v>55054591</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>2420697</v>
+        <v>799017</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>9773965</v>
+        <v>84281662</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>391821</v>
+        <v>39854948</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>5236960</v>
+        <v>41688008</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>5750041</v>
+        <v>89001100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>2971501</v>
+        <v>19580121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>9818193</v>
+        <v>81138374</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>6913785</v>
+        <v>43573536</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>423026</v>
+        <v>65303954</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>9509966</v>
+        <v>60640803</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>9453321</v>
+        <v>30698848</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>5277929</v>
+        <v>19268527</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>6534529</v>
+        <v>76132749</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>69251</v>
+        <v>19547029</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>9570100</v>
+        <v>86342726</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>6814010</v>
+        <v>6633311</v>
       </c>
     </row>
   </sheetData>
